--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4828830B-1081-4FB9-9F9C-311CD67522C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Student Pairs</t>
   </si>
   <si>
-    <t>ECU Student + Tahlia Hood-Broadwright (UNCCH)</t>
-  </si>
-  <si>
     <t>Kyle Adams (UNCA) + Maxfield Adair Palmer (UNCCH)</t>
   </si>
   <si>
@@ -127,6 +121,15 @@
   </si>
   <si>
     <t>Independent Project Presentations</t>
+  </si>
+  <si>
+    <t>Monday 7th December</t>
+  </si>
+  <si>
+    <t>Monday 14th</t>
+  </si>
+  <si>
+    <t>Sarah Akers (ECU)  + Tahlia Hood-Broadwright (UNCCH)</t>
   </si>
 </sst>
 </file>
@@ -306,9 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,13 +317,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,59 +351,46 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,7 +710,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,232 +727,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>11</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
-        <v>9</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="C4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>13</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>14</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="4" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>15</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="3" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
-        <v>10</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
-        <v>11</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>13</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <v>14</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
-        <v>15</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="32"/>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -957,50 +960,44 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>17</v>
+      <c r="B16" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="K2:K8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="G2:G9"/>
@@ -1008,6 +1005,12 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F2:F8"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="K2:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4828830B-1081-4FB9-9F9C-311CD67522C1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F972AD71-516F-43A1-BB58-AFF8EB651CA6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Weekend!</t>
   </si>
   <si>
-    <t>Introduction to R</t>
-  </si>
-  <si>
     <t>Introductions &amp; Lecture: Course Overview and Introduction to Commandline tools in Biostats</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Review and Check-in</t>
   </si>
   <si>
-    <t>Mapping (Approx time 2 hrs)</t>
-  </si>
-  <si>
     <t>Introduction to Pop Genomics</t>
   </si>
   <si>
@@ -114,12 +108,6 @@
     <t>Student Pairs</t>
   </si>
   <si>
-    <t>Kyle Adams (UNCA) + Maxfield Adair Palmer (UNCCH)</t>
-  </si>
-  <si>
-    <t>Scout Smith (UNCA) + Cody Sorrell (UNCCH)</t>
-  </si>
-  <si>
     <t>Independent Project Presentations</t>
   </si>
   <si>
@@ -130,6 +118,18 @@
   </si>
   <si>
     <t>Sarah Akers (ECU)  + Tahlia Hood-Broadwright (UNCCH)</t>
+  </si>
+  <si>
+    <t>Scout Smith (UNCA) + Maxfield Adair Palmer (UNCCH)</t>
+  </si>
+  <si>
+    <t>Kyle Adams (UNCA) + Kristen Orr (ECU)</t>
+  </si>
+  <si>
+    <t>Mapping (Approx time 1.5 hr)</t>
+  </si>
+  <si>
+    <t>Introduction to R (Approx time 1-2 hr)</t>
   </si>
 </sst>
 </file>
@@ -333,6 +333,24 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -340,6 +358,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,15 +385,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,24 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690462ED-3B6B-410F-B739-58AC896399E3}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -768,156 +768,156 @@
       <c r="A2" s="15">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>7</v>
+      <c r="B2" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>11</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="25"/>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>12</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="25"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>13</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="25"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>14</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="26"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>15</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="22" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -925,34 +925,34 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="18"/>
       <c r="H9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -961,43 +961,49 @@
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="K2:K8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="G2:G9"/>
@@ -1005,12 +1011,6 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F2:F8"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="K2:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F972AD71-516F-43A1-BB58-AFF8EB651CA6}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA9823EB-06B2-4A1E-A26A-E72D858072BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Introduction to R (Approx time 1-2 hr)</t>
+  </si>
+  <si>
+    <t>Assignment Dataset</t>
+  </si>
+  <si>
+    <t>Dataset 3: Stickleback Parental Care</t>
+  </si>
+  <si>
+    <t>Dataset 1: Wire-tailed Manakin brain data</t>
+  </si>
+  <si>
+    <t>Dataset 2: White-throated sparrow morph nestling data</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -333,6 +345,48 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -351,47 +405,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690462ED-3B6B-410F-B739-58AC896399E3}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +783,7 @@
       <c r="A2" s="15">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
@@ -778,8 +793,8 @@
       <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -789,112 +804,112 @@
       <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="26"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="28" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="26"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>12</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="26"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>13</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="26"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>14</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>15</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="14" t="s">
         <v>19</v>
       </c>
@@ -904,8 +919,8 @@
       <c r="E8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="14" t="s">
         <v>19</v>
       </c>
@@ -915,8 +930,8 @@
       <c r="J8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="29"/>
+      <c r="L8" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -939,7 +954,7 @@
       <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="13" t="s">
         <v>11</v>
       </c>
@@ -952,7 +967,7 @@
       <c r="K9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="32"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -966,29 +981,41 @@
       <c r="D12" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="36" t="s">
         <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -998,12 +1025,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="K2:K8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="G2:G9"/>
@@ -1011,6 +1032,12 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F2:F8"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="K2:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA9823EB-06B2-4A1E-A26A-E72D858072BB}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F43023E8-93A0-453E-B4D3-EB6478F25C95}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Discussion Papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,44 +35,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>Weekend!</t>
   </si>
   <si>
     <t>Introductions &amp; Lecture: Course Overview and Introduction to Commandline tools in Biostats</t>
   </si>
   <si>
-    <t>Introduction to Unix</t>
-  </si>
-  <si>
     <t>Lecture</t>
   </si>
   <si>
-    <t>Introduction to NGS &amp; data</t>
-  </si>
-  <si>
     <t>GO OUTSIDE! (keeping a social distance and wearing a mask) :)</t>
   </si>
   <si>
-    <t>Student Led Paper Discussion</t>
-  </si>
-  <si>
     <t>Mapping</t>
   </si>
   <si>
@@ -96,12 +76,6 @@
     <t>Review and Check-in</t>
   </si>
   <si>
-    <t>Introduction to Pop Genomics</t>
-  </si>
-  <si>
-    <t>Variant Calling</t>
-  </si>
-  <si>
     <t>Gene Ontology</t>
   </si>
   <si>
@@ -111,21 +85,9 @@
     <t>Independent Project Presentations</t>
   </si>
   <si>
-    <t>Monday 7th December</t>
-  </si>
-  <si>
-    <t>Monday 14th</t>
-  </si>
-  <si>
-    <t>Sarah Akers (ECU)  + Tahlia Hood-Broadwright (UNCCH)</t>
-  </si>
-  <si>
     <t>Scout Smith (UNCA) + Maxfield Adair Palmer (UNCCH)</t>
   </si>
   <si>
-    <t>Kyle Adams (UNCA) + Kristen Orr (ECU)</t>
-  </si>
-  <si>
     <t>Mapping (Approx time 1.5 hr)</t>
   </si>
   <si>
@@ -142,13 +104,196 @@
   </si>
   <si>
     <t>Dataset 2: White-throated sparrow morph nestling data</t>
+  </si>
+  <si>
+    <t>Introduction to Unix (Approx time 1-2 hrs)</t>
+  </si>
+  <si>
+    <t>Data and Quality Control</t>
+  </si>
+  <si>
+    <t>Introduction to NGS &amp; Unix</t>
+  </si>
+  <si>
+    <t>Variant Calling / Assembly</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Sabrina Burmeister &amp; Rebecca Hale</t>
+  </si>
+  <si>
+    <t>Erica Todd et al (2016). The power and promise of RNA-seq in Ecology and Evolution. Molecular Ecology</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Sabrina &amp; Rebecca</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Kristen</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Kyle</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Sarah Akers (ECU)  + Kyle Adams (UNCA)</t>
+  </si>
+  <si>
+    <t>Kristen Orr (ECU)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Kyle Adams</t>
+  </si>
+  <si>
+    <t>Kristen Orr</t>
+  </si>
+  <si>
+    <t>Scout Smith</t>
+  </si>
+  <si>
+    <t>Annotation + GO</t>
+  </si>
+  <si>
+    <t>Sarah Akers</t>
+  </si>
+  <si>
+    <t>Max Palmer</t>
+  </si>
+  <si>
+    <t>Day 1 Monday 7th December</t>
+  </si>
+  <si>
+    <t>Day 2 Tuesday</t>
+  </si>
+  <si>
+    <t>Day 3 Wednesday</t>
+  </si>
+  <si>
+    <t>Day 4 Thursday</t>
+  </si>
+  <si>
+    <t>Day 5 Friday</t>
+  </si>
+  <si>
+    <t>Day 6 14th</t>
+  </si>
+  <si>
+    <t>Day 7 Tuesday</t>
+  </si>
+  <si>
+    <t>Day 8 Wednesday</t>
+  </si>
+  <si>
+    <t>Day 9 Thursday</t>
+  </si>
+  <si>
+    <t>Day 10 Friday</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion (??)</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thur</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Stanford et al (2020) The power and limitations of gene expression pathway analyses toward predicting population response to environmental stressors. Evolutionary Applications</t>
+  </si>
+  <si>
+    <t>NGS + Unix</t>
+  </si>
+  <si>
+    <t>Microbiome paper</t>
+  </si>
+  <si>
+    <t>Pop Genomics paper</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hölzer and Marz (2019) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De novo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transcriptome assembly: a comprehensive cross-species comparison of short-read RNA-seq assemblers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zinzow-Kramer et al (2015) Genes located in a chromosomal inversion are correlated with territorial song in white-throated sparrows. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genes, Brain and Behavior</t>
+    </r>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Scout</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Max</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Sarah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +317,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +369,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -310,17 +469,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -335,9 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -345,6 +550,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -352,6 +569,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,15 +596,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,26 +605,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690462ED-3B6B-410F-B739-58AC896399E3}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,308 +984,496 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
     <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="12" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="12" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
-        <v>9</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>11</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>12</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>13</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>14</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>15</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>16</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>10</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>11</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>13</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>14</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>15</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
         <v>18</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="51"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
+        <v>19</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="51"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
+        <v>20</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="39"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="33"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>15</v>
+      <c r="E20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="H3:H7"/>
+  <mergeCells count="9">
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L2:L7"/>
     <mergeCell ref="K2:K8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="F2:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB8D86-75F7-488E-9248-C65DDFAACBFF}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F43023E8-93A0-453E-B4D3-EB6478F25C95}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2123542-C109-4B47-8630-1AFFD51ADD1D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Discussion Papers" sheetId="2" r:id="rId2"/>
+    <sheet name="Independent Project Assignments" sheetId="3" r:id="rId2"/>
+    <sheet name="Discussion Papers" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>Time</t>
   </si>
@@ -67,9 +68,6 @@
     <t>Differential Expression</t>
   </si>
   <si>
-    <t>QC (approx time 1hr)</t>
-  </si>
-  <si>
     <t>Tutorial (Zoom free)</t>
   </si>
   <si>
@@ -79,45 +77,12 @@
     <t>Gene Ontology</t>
   </si>
   <si>
-    <t>Student Pairs</t>
-  </si>
-  <si>
-    <t>Independent Project Presentations</t>
-  </si>
-  <si>
-    <t>Scout Smith (UNCA) + Maxfield Adair Palmer (UNCCH)</t>
-  </si>
-  <si>
-    <t>Mapping (Approx time 1.5 hr)</t>
-  </si>
-  <si>
-    <t>Introduction to R (Approx time 1-2 hr)</t>
-  </si>
-  <si>
-    <t>Assignment Dataset</t>
-  </si>
-  <si>
-    <t>Dataset 3: Stickleback Parental Care</t>
-  </si>
-  <si>
-    <t>Dataset 1: Wire-tailed Manakin brain data</t>
-  </si>
-  <si>
-    <t>Dataset 2: White-throated sparrow morph nestling data</t>
-  </si>
-  <si>
-    <t>Introduction to Unix (Approx time 1-2 hrs)</t>
-  </si>
-  <si>
     <t>Data and Quality Control</t>
   </si>
   <si>
     <t>Introduction to NGS &amp; Unix</t>
   </si>
   <si>
-    <t>Variant Calling / Assembly</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -136,9 +101,6 @@
     <t>Student Led Paper Discussion: Sabrina &amp; Rebecca</t>
   </si>
   <si>
-    <t>Student Led Paper Discussion: Kristen</t>
-  </si>
-  <si>
     <t>Student Led Paper Discussion: Kyle</t>
   </si>
   <si>
@@ -148,9 +110,6 @@
     <t>QC</t>
   </si>
   <si>
-    <t>Sarah Akers (ECU)  + Kyle Adams (UNCA)</t>
-  </si>
-  <si>
     <t>Kristen Orr (ECU)</t>
   </si>
   <si>
@@ -160,21 +119,12 @@
     <t>Kyle Adams</t>
   </si>
   <si>
-    <t>Kristen Orr</t>
-  </si>
-  <si>
-    <t>Scout Smith</t>
-  </si>
-  <si>
     <t>Annotation + GO</t>
   </si>
   <si>
     <t>Sarah Akers</t>
   </si>
   <si>
-    <t>Max Palmer</t>
-  </si>
-  <si>
     <t>Day 1 Monday 7th December</t>
   </si>
   <si>
@@ -205,9 +155,6 @@
     <t>Day 10 Friday</t>
   </si>
   <si>
-    <t>Student Led Paper Discussion (??)</t>
-  </si>
-  <si>
     <t>Tues</t>
   </si>
   <si>
@@ -226,16 +173,7 @@
     <t>Tue</t>
   </si>
   <si>
-    <t>Stanford et al (2020) The power and limitations of gene expression pathway analyses toward predicting population response to environmental stressors. Evolutionary Applications</t>
-  </si>
-  <si>
     <t>NGS + Unix</t>
-  </si>
-  <si>
-    <t>Microbiome paper</t>
-  </si>
-  <si>
-    <t>Pop Genomics paper</t>
   </si>
   <si>
     <r>
@@ -280,13 +218,168 @@
     </r>
   </si>
   <si>
-    <t>Student Led Paper Discussion: Scout</t>
-  </si>
-  <si>
     <t>Student Led Paper Discussion: Max</t>
   </si>
   <si>
     <t>Student Led Paper Discussion: Sarah</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: ??</t>
+  </si>
+  <si>
+    <t>Cody Sorrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah Akers (ECU)  </t>
+  </si>
+  <si>
+    <t>Kyle Adams (UNCA)</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Cody</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Kristen</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Cody Sorrell (UNCCH)</t>
+  </si>
+  <si>
+    <t>Microbiome project TBA</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Timeslot</t>
+  </si>
+  <si>
+    <t>1500-1515</t>
+  </si>
+  <si>
+    <t>1515-1530</t>
+  </si>
+  <si>
+    <t>1530-1545</t>
+  </si>
+  <si>
+    <t>1545-1600</t>
+  </si>
+  <si>
+    <t>Cody 1500; Kristen 1515; Kyle 1530;</t>
+  </si>
+  <si>
+    <t>Introduction to Unix (Approx time 2-4 hrs)</t>
+  </si>
+  <si>
+    <t>QC (approx time 1-2hr)</t>
+  </si>
+  <si>
+    <t>Mapping (Approx time 1.5-2.5 hr)</t>
+  </si>
+  <si>
+    <t>Differential Expression (approx time 1.5-2.5 hrs)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose your own adventure:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variant Calling / Assembly</t>
+    </r>
+  </si>
+  <si>
+    <t>Own Data</t>
+  </si>
+  <si>
+    <t>Sue McCrae</t>
+  </si>
+  <si>
+    <t>Kristen Orr</t>
+  </si>
+  <si>
+    <t>Dataset 2</t>
+  </si>
+  <si>
+    <t>Dataset 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Davidson et al (2020) Diet induces parallel changes to the gut microbiota and problem solving performance in a wild bird. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scientific Reports</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stanford et al (2020) The power and limitations of gene expression pathway analyses toward predicting population response to environmental stressors. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evolutionary Applications</t>
+    </r>
+  </si>
+  <si>
+    <t>Microbiome</t>
+  </si>
+  <si>
+    <t>Trait Mapping</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kim et al (2017) A sex-linked supergene controls sperm morphology and swimming speed in a songbird. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nature Ecology and Evolution</t>
+    </r>
+  </si>
+  <si>
+    <t>Introduction to R (Approx time 3-4 hr)</t>
+  </si>
+  <si>
+    <t>Sarah 1545</t>
   </si>
 </sst>
 </file>
@@ -525,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -556,57 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -635,25 +677,88 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690462ED-3B6B-410F-B739-58AC896399E3}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,183 +1098,183 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="53"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="48" t="s">
-        <v>9</v>
+      <c r="F3" s="35"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="22"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="22"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="40"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="27" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1177,141 +1282,127 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="47" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="33"/>
+        <v>21</v>
+      </c>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="A11" s="18">
         <v>18</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="51"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="33"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="A12" s="18">
         <v>19</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="51"/>
-      <c r="I12" s="33"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="33"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="A13" s="18">
         <v>20</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="39"/>
-      <c r="I13" s="33"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="C14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I4:I7"/>
+  <mergeCells count="8">
     <mergeCell ref="J3:J7"/>
-    <mergeCell ref="L8:L9"/>
     <mergeCell ref="L2:L7"/>
     <mergeCell ref="K2:K8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="G2:G9"/>
-    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I4:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1319,11 +1410,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07140C4-AF0D-4B51-97FC-E741A3DF4416}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB8D86-75F7-488E-9248-C65DDFAACBFF}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,16 +1503,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1353,16 +1520,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1370,16 +1537,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1387,16 +1554,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1404,16 +1571,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1421,16 +1588,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1438,16 +1605,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1455,13 +1622,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1469,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2123542-C109-4B47-8630-1AFFD51ADD1D}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{973594C3-C3A8-4F77-8D85-3B403BA9BC8D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -711,6 +711,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -724,12 +751,6 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,27 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690462ED-3B6B-410F-B739-58AC896399E3}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,14 +1135,14 @@
       <c r="A2" s="13">
         <v>9</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="17"/>
       <c r="E2" s="27"/>
       <c r="F2" s="34"/>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="52" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -1150,14 +1150,14 @@
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="50"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1168,24 +1168,24 @@
         <v>5</v>
       </c>
       <c r="F3" s="35"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="40" t="s">
         <v>69</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="51"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1198,73 +1198,73 @@
         <v>68</v>
       </c>
       <c r="F4" s="35"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="G4" s="52"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="51"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="31"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="43"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="31"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="31"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="51"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="31"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="52"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
       <c r="E8" s="31"/>
       <c r="F8" s="36"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="32"/>
       <c r="I8" s="12" t="s">
         <v>11</v>
@@ -1272,7 +1272,7 @@
       <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="39" t="s">
         <v>65</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="F9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="29" t="s">
         <v>11</v>
       </c>
@@ -1489,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB8D86-75F7-488E-9248-C65DDFAACBFF}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{973594C3-C3A8-4F77-8D85-3B403BA9BC8D}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{54B4BFF8-6878-4605-A423-4C04B055AAF4}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>Time</t>
   </si>
@@ -218,13 +218,7 @@
     </r>
   </si>
   <si>
-    <t>Student Led Paper Discussion: Max</t>
-  </si>
-  <si>
     <t>Student Led Paper Discussion: Sarah</t>
-  </si>
-  <si>
-    <t>Student Led Paper Discussion: ??</t>
   </si>
   <si>
     <t>Cody Sorrell</t>
@@ -380,6 +374,9 @@
   </si>
   <si>
     <t>Sarah 1545</t>
+  </si>
+  <si>
+    <t>Student Led Paper Discussion: Sue</t>
   </si>
 </sst>
 </file>
@@ -623,9 +620,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1076,7 +1073,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1091,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1106,7 +1103,7 @@
       <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1132,72 +1129,72 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="46"/>
       <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>10</v>
       </c>
       <c r="B3" s="51"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="52"/>
       <c r="H3" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>11</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="52"/>
       <c r="H4" s="41"/>
       <c r="I4" s="53" t="s">
@@ -1208,190 +1205,190 @@
       <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>12</v>
       </c>
       <c r="B5" s="49"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="52"/>
-      <c r="H5" s="31"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="54"/>
       <c r="J5" s="41"/>
       <c r="K5" s="47"/>
       <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>13</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="52"/>
-      <c r="H6" s="31"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="54"/>
       <c r="J6" s="41"/>
       <c r="K6" s="47"/>
       <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>14</v>
       </c>
       <c r="B7" s="49"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="32"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="55"/>
       <c r="J7" s="42"/>
       <c r="K7" s="47"/>
       <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>15</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="36"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="52"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="48"/>
-      <c r="L8" s="39" t="s">
-        <v>65</v>
+      <c r="L8" s="38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>55</v>
+      <c r="F9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G9" s="52"/>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>82</v>
+      <c r="K9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="16"/>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>18</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="33"/>
-      <c r="I11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="32"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>19</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="33"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="32"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>20</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="22"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="21"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1425,58 +1422,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -1574,13 +1571,13 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1611,10 +1608,10 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1625,13 +1622,13 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">

--- a/Course_Schedule.xlsx
+++ b/Course_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Bioinformatics Workshop May 2020/Course_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{54B4BFF8-6878-4605-A423-4C04B055AAF4}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{C44EFFF2-096E-4916-81B7-772141D05A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{550DB1D7-3CBF-46BE-95ED-9E2DE0F19674}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BBDC66C-4308-445A-9908-A0AF7C7880AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>Time</t>
   </si>
@@ -263,9 +263,6 @@
     <t>1545-1600</t>
   </si>
   <si>
-    <t>Cody 1500; Kristen 1515; Kyle 1530;</t>
-  </si>
-  <si>
     <t>Introduction to Unix (Approx time 2-4 hrs)</t>
   </si>
   <si>
@@ -276,29 +273,6 @@
   </si>
   <si>
     <t>Differential Expression (approx time 1.5-2.5 hrs)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Choose your own adventure:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Variant Calling / Assembly</t>
-    </r>
   </si>
   <si>
     <t>Own Data</t>
@@ -373,10 +347,13 @@
     <t>Introduction to R (Approx time 3-4 hr)</t>
   </si>
   <si>
-    <t>Sarah 1545</t>
-  </si>
-  <si>
     <t>Student Led Paper Discussion: Sue</t>
+  </si>
+  <si>
+    <t>Variant Calling</t>
+  </si>
+  <si>
+    <t>Cody 1500; Kristen 1515; Sarah 1530;</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1050,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,13 +1144,13 @@
       <c r="F3" s="34"/>
       <c r="G3" s="52"/>
       <c r="H3" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="44"/>
@@ -1183,16 +1160,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="52"/>
@@ -1271,7 +1248,7 @@
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="38" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1304,11 +1281,9 @@
         <v>48</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1322,7 +1297,7 @@
         <v>52</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I10" s="15"/>
     </row>
@@ -1437,7 +1412,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>62</v>
@@ -1459,7 +1434,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -1470,7 +1445,7 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1571,13 +1546,13 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1608,10 +1583,10 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1622,13 +1597,13 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
